--- a/testdaten/Firma2/Mitarbeiterliste_163_Personen.xlsx
+++ b/testdaten/Firma2/Mitarbeiterliste_163_Personen.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_d12\MitbestimmIT\testdaten\Firma2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78222882-3066-422B-9702-FF8DBC52F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8430" yWindow="4020" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="302">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -911,13 +917,22 @@
   </si>
   <si>
     <t>Vertrieb</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Beerdigungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +947,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -969,24 +990,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1024,7 +1063,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1058,6 +1097,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1092,9 +1132,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1267,14 +1308,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,49 +1337,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>100002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
       </c>
       <c r="D4" t="s">
         <v>287</v>
@@ -1342,423 +1389,423 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>100002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>100003</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>165</v>
       </c>
-      <c r="D5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>100004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>166</v>
       </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>100005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>167</v>
       </c>
-      <c r="D7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>100006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>168</v>
       </c>
-      <c r="D8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>100007</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>169</v>
       </c>
-      <c r="D9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>100008</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>100009</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>171</v>
       </c>
-      <c r="D11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100010</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>172</v>
       </c>
-      <c r="D12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>100011</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>100012</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>174</v>
       </c>
-      <c r="D14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>100013</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>175</v>
       </c>
-      <c r="D15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>100014</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="D16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>100015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100016</v>
+        <v>100015</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>100016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>100017</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>179</v>
       </c>
-      <c r="D19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>100018</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>180</v>
       </c>
-      <c r="D20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>100019</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>181</v>
       </c>
-      <c r="D21" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>100020</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>182</v>
       </c>
-      <c r="D22" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>100021</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>183</v>
       </c>
-      <c r="D23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>100022</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>184</v>
       </c>
-      <c r="D24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>100023</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>185</v>
       </c>
-      <c r="D25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>100024</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>186</v>
       </c>
-      <c r="D26" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>100025</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>187</v>
       </c>
-      <c r="D27" t="s">
-        <v>287</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>100026</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>188</v>
-      </c>
-      <c r="D28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>100027</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>189</v>
       </c>
       <c r="D29" t="s">
         <v>287</v>
@@ -1767,304 +1814,304 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>100027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>100028</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>190</v>
       </c>
-      <c r="D30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>100029</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>191</v>
       </c>
-      <c r="D31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>100030</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>192</v>
       </c>
-      <c r="D32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>100031</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="D33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>100032</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>194</v>
       </c>
-      <c r="D34" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>100033</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="D35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>100034</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="D36" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>100035</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>196</v>
       </c>
-      <c r="D37" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>100036</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>197</v>
       </c>
-      <c r="D38" t="s">
-        <v>287</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>100037</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="D39" t="s">
-        <v>287</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>100038</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>198</v>
       </c>
-      <c r="D40" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>100039</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>199</v>
       </c>
-      <c r="D41" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>100040</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>200</v>
       </c>
-      <c r="D42" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D43" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>100041</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>201</v>
       </c>
-      <c r="D43" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>100042</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>202</v>
       </c>
-      <c r="D44" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>100043</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>203</v>
       </c>
-      <c r="D45" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>100044</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>204</v>
-      </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E46" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100045</v>
+        <v>100044</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
         <v>288</v>
@@ -2073,202 +2120,202 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>100045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>100046</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>173</v>
       </c>
-      <c r="D48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>100047</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="D49" t="s">
-        <v>288</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>100048</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>206</v>
       </c>
-      <c r="D50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>100049</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>207</v>
       </c>
-      <c r="D51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>100050</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>201</v>
       </c>
-      <c r="D52" t="s">
-        <v>288</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D53" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>100051</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>208</v>
       </c>
-      <c r="D53" t="s">
-        <v>288</v>
-      </c>
-      <c r="E53" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>100052</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>209</v>
-      </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>100052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>100053</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>210</v>
       </c>
-      <c r="D55" t="s">
-        <v>287</v>
-      </c>
-      <c r="E55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>100054</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
-      </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100055</v>
+        <v>100054</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>100055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>100056</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>212</v>
-      </c>
-      <c r="D58" t="s">
-        <v>287</v>
-      </c>
-      <c r="E58" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>100057</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" t="s">
-        <v>213</v>
       </c>
       <c r="D59" t="s">
         <v>287</v>
@@ -2277,440 +2324,440 @@
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>100057</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>100058</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>214</v>
       </c>
-      <c r="D60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>100059</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>90</v>
       </c>
-      <c r="D61" t="s">
-        <v>288</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>100060</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>215</v>
       </c>
-      <c r="D62" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>100061</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>216</v>
       </c>
-      <c r="D63" t="s">
-        <v>287</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D64" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>100062</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>217</v>
       </c>
-      <c r="D64" t="s">
-        <v>287</v>
-      </c>
-      <c r="E64" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>100063</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>218</v>
-      </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>100063</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>100064</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>219</v>
       </c>
-      <c r="D66" t="s">
-        <v>288</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>100065</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>220</v>
       </c>
-      <c r="D67" t="s">
-        <v>288</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D68" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>100066</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>166</v>
       </c>
-      <c r="D68" t="s">
-        <v>288</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>100067</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>221</v>
       </c>
-      <c r="D69" t="s">
-        <v>287</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D70" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>100068</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>222</v>
       </c>
-      <c r="D70" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>100069</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>210</v>
       </c>
-      <c r="D71" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>100070</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>223</v>
       </c>
-      <c r="D72" t="s">
-        <v>287</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D73" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>100071</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>224</v>
       </c>
-      <c r="D73" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>100072</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>225</v>
       </c>
-      <c r="D74" t="s">
-        <v>287</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D75" t="s">
+        <v>287</v>
+      </c>
+      <c r="E75" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>100073</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>163</v>
       </c>
-      <c r="D75" t="s">
-        <v>287</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D76" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>100074</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>226</v>
       </c>
-      <c r="D76" t="s">
-        <v>287</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>100075</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>227</v>
       </c>
-      <c r="D77" t="s">
-        <v>287</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D78" t="s">
+        <v>287</v>
+      </c>
+      <c r="E78" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>100076</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>228</v>
       </c>
-      <c r="D78" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D79" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>100077</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>165</v>
       </c>
-      <c r="D79" t="s">
-        <v>287</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D80" t="s">
+        <v>287</v>
+      </c>
+      <c r="E80" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>100078</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>229</v>
       </c>
-      <c r="D80" t="s">
-        <v>287</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D81" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>100079</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>230</v>
       </c>
-      <c r="D81" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>100080</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>100080</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>100081</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>232</v>
       </c>
-      <c r="D83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>100082</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>233</v>
-      </c>
-      <c r="D84" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>100083</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
-        <v>194</v>
       </c>
       <c r="D85" t="s">
         <v>288</v>
@@ -2719,627 +2766,627 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>100083</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>100084</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>234</v>
       </c>
-      <c r="D86" t="s">
-        <v>287</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>100085</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>235</v>
       </c>
-      <c r="D87" t="s">
-        <v>288</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D88" t="s">
+        <v>288</v>
+      </c>
+      <c r="E88" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>100086</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>207</v>
       </c>
-      <c r="D88" t="s">
-        <v>288</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>100087</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>224</v>
       </c>
-      <c r="D89" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>100088</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>171</v>
       </c>
-      <c r="D90" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>100089</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>236</v>
       </c>
-      <c r="D91" t="s">
-        <v>287</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D92" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>100090</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>237</v>
       </c>
-      <c r="D92" t="s">
-        <v>288</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93" t="s">
+        <v>288</v>
+      </c>
+      <c r="E93" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>100091</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>238</v>
       </c>
-      <c r="D93" t="s">
-        <v>288</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D94" t="s">
+        <v>288</v>
+      </c>
+      <c r="E94" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>100092</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>239</v>
       </c>
-      <c r="D94" t="s">
-        <v>287</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D95" t="s">
+        <v>287</v>
+      </c>
+      <c r="E95" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>100093</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>240</v>
       </c>
-      <c r="D95" t="s">
-        <v>288</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D96" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>100094</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>99</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>241</v>
       </c>
-      <c r="D96" t="s">
-        <v>287</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D97" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>100095</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>242</v>
       </c>
-      <c r="D97" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>100096</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>243</v>
       </c>
-      <c r="D98" t="s">
-        <v>288</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>100097</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>244</v>
       </c>
-      <c r="D99" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D100" t="s">
+        <v>287</v>
+      </c>
+      <c r="E100" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100098</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>103</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>245</v>
       </c>
-      <c r="D100" t="s">
-        <v>287</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D101" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>100099</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>104</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>246</v>
       </c>
-      <c r="D101" t="s">
-        <v>288</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D102" t="s">
+        <v>288</v>
+      </c>
+      <c r="E102" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>100100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>105</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>247</v>
       </c>
-      <c r="D102" t="s">
-        <v>288</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D103" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>100101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>106</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>248</v>
       </c>
-      <c r="D103" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D104" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>100102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>107</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>249</v>
       </c>
-      <c r="D104" t="s">
-        <v>287</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D105" t="s">
+        <v>287</v>
+      </c>
+      <c r="E105" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>100103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>108</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>250</v>
       </c>
-      <c r="D105" t="s">
-        <v>288</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D106" t="s">
+        <v>288</v>
+      </c>
+      <c r="E106" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>100104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>109</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>212</v>
       </c>
-      <c r="D106" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D107" t="s">
+        <v>288</v>
+      </c>
+      <c r="E107" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>100105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>110</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>251</v>
       </c>
-      <c r="D107" t="s">
-        <v>288</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D108" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>100106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>111</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>252</v>
       </c>
-      <c r="D108" t="s">
-        <v>288</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D109" t="s">
+        <v>288</v>
+      </c>
+      <c r="E109" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>100107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>104</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>253</v>
       </c>
-      <c r="D109" t="s">
-        <v>288</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D110" t="s">
+        <v>288</v>
+      </c>
+      <c r="E110" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>100108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>254</v>
       </c>
-      <c r="D110" t="s">
-        <v>287</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D111" t="s">
+        <v>287</v>
+      </c>
+      <c r="E111" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>100109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>255</v>
       </c>
-      <c r="D111" t="s">
-        <v>288</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D112" t="s">
+        <v>288</v>
+      </c>
+      <c r="E112" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>100110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>114</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>256</v>
       </c>
-      <c r="D112" t="s">
-        <v>287</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D113" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>100111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>64</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>172</v>
       </c>
-      <c r="D113" t="s">
-        <v>288</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D114" t="s">
+        <v>288</v>
+      </c>
+      <c r="E114" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>100112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>251</v>
       </c>
-      <c r="D114" t="s">
-        <v>288</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D115" t="s">
+        <v>288</v>
+      </c>
+      <c r="E115" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>100113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>257</v>
       </c>
-      <c r="D115" t="s">
-        <v>288</v>
-      </c>
-      <c r="E115" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>100114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" t="s">
-        <v>203</v>
-      </c>
       <c r="D116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E116" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>100115</v>
+        <v>100114</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E117" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>100115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>100116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>258</v>
       </c>
-      <c r="D118" t="s">
-        <v>288</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D119" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>100117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>224</v>
       </c>
-      <c r="D119" t="s">
-        <v>287</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D120" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>100118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>44</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>259</v>
       </c>
-      <c r="D120" t="s">
-        <v>288</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>100119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>121</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>180</v>
-      </c>
-      <c r="D121" t="s">
-        <v>287</v>
-      </c>
-      <c r="E121" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>100120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
-        <v>260</v>
       </c>
       <c r="D122" t="s">
         <v>287</v>
@@ -3348,717 +3395,734 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
+        <v>100120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>100121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>123</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>178</v>
       </c>
-      <c r="D123" t="s">
-        <v>287</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D124" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>100122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>124</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>247</v>
       </c>
-      <c r="D124" t="s">
-        <v>287</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E125" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>100123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>125</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>200</v>
       </c>
-      <c r="D125" t="s">
-        <v>287</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126" t="s">
+        <v>287</v>
+      </c>
+      <c r="E126" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>100124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>126</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>164</v>
       </c>
-      <c r="D126" t="s">
-        <v>287</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D127" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>100125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>127</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>261</v>
       </c>
-      <c r="D127" t="s">
-        <v>288</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D128" t="s">
+        <v>288</v>
+      </c>
+      <c r="E128" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>100126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>128</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>262</v>
       </c>
-      <c r="D128" t="s">
-        <v>288</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="D129" t="s">
+        <v>288</v>
+      </c>
+      <c r="E129" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>100127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>263</v>
       </c>
-      <c r="D129" t="s">
-        <v>287</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D130" t="s">
+        <v>287</v>
+      </c>
+      <c r="E130" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>100128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>130</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>264</v>
       </c>
-      <c r="D130" t="s">
-        <v>287</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D131" t="s">
+        <v>287</v>
+      </c>
+      <c r="E131" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>100129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>131</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>265</v>
       </c>
-      <c r="D131" t="s">
-        <v>288</v>
-      </c>
-      <c r="E131" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <v>100130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132" t="s">
-        <v>266</v>
-      </c>
       <c r="D132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E132" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>100130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" t="s">
+        <v>287</v>
+      </c>
+      <c r="E133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>100131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>133</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>267</v>
       </c>
-      <c r="D133" t="s">
-        <v>288</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>100132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>134</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>268</v>
       </c>
-      <c r="D134" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D135" t="s">
+        <v>287</v>
+      </c>
+      <c r="E135" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>100133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>135</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>269</v>
       </c>
-      <c r="D135" t="s">
-        <v>287</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D136" t="s">
+        <v>287</v>
+      </c>
+      <c r="E136" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>100134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>136</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>270</v>
       </c>
-      <c r="D136" t="s">
-        <v>288</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D137" t="s">
+        <v>288</v>
+      </c>
+      <c r="E137" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>100135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>137</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>264</v>
       </c>
-      <c r="D137" t="s">
-        <v>287</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D138" t="s">
+        <v>287</v>
+      </c>
+      <c r="E138" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>100136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>138</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>271</v>
       </c>
-      <c r="D138" t="s">
-        <v>288</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D139" t="s">
+        <v>288</v>
+      </c>
+      <c r="E139" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>100137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>89</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>272</v>
       </c>
-      <c r="D139" t="s">
-        <v>287</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D140" t="s">
+        <v>287</v>
+      </c>
+      <c r="E140" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>100138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>42</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>273</v>
       </c>
-      <c r="D140" t="s">
-        <v>287</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D141" t="s">
+        <v>287</v>
+      </c>
+      <c r="E141" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>100139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>139</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>274</v>
       </c>
-      <c r="D141" t="s">
-        <v>287</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D142" t="s">
+        <v>287</v>
+      </c>
+      <c r="E142" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>100140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>140</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>275</v>
       </c>
-      <c r="D142" t="s">
-        <v>288</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D143" t="s">
+        <v>288</v>
+      </c>
+      <c r="E143" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>100141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>202</v>
       </c>
-      <c r="D143" t="s">
-        <v>287</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D144" t="s">
+        <v>287</v>
+      </c>
+      <c r="E144" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>100142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>142</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>261</v>
       </c>
-      <c r="D144" t="s">
-        <v>288</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D145" t="s">
+        <v>288</v>
+      </c>
+      <c r="E145" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>100143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>143</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>276</v>
       </c>
-      <c r="D145" t="s">
-        <v>287</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D146" t="s">
+        <v>287</v>
+      </c>
+      <c r="E146" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>100144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>144</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>277</v>
       </c>
-      <c r="D146" t="s">
-        <v>287</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D147" t="s">
+        <v>287</v>
+      </c>
+      <c r="E147" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>100145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>145</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>190</v>
       </c>
-      <c r="D147" t="s">
-        <v>288</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D148" t="s">
+        <v>288</v>
+      </c>
+      <c r="E148" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>100146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>146</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>225</v>
       </c>
-      <c r="D148" t="s">
-        <v>288</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>100147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>147</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>278</v>
       </c>
-      <c r="D149" t="s">
-        <v>287</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D150" t="s">
+        <v>287</v>
+      </c>
+      <c r="E150" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>100148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>148</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>279</v>
       </c>
-      <c r="D150" t="s">
-        <v>287</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D151" t="s">
+        <v>287</v>
+      </c>
+      <c r="E151" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>100149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>149</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>280</v>
       </c>
-      <c r="D151" t="s">
-        <v>288</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D152" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>100150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>150</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>177</v>
       </c>
-      <c r="D152" t="s">
-        <v>287</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D153" t="s">
+        <v>287</v>
+      </c>
+      <c r="E153" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>100151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>151</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>281</v>
       </c>
-      <c r="D153" t="s">
-        <v>287</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D154" t="s">
+        <v>287</v>
+      </c>
+      <c r="E154" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>100152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>152</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>191</v>
       </c>
-      <c r="D154" t="s">
-        <v>287</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D155" t="s">
+        <v>287</v>
+      </c>
+      <c r="E155" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>100153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>38</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>277</v>
       </c>
-      <c r="D155" t="s">
-        <v>287</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D156" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>100154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>153</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>222</v>
       </c>
-      <c r="D156" t="s">
-        <v>288</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="D157" t="s">
+        <v>288</v>
+      </c>
+      <c r="E157" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>100155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>154</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>282</v>
       </c>
-      <c r="D157" t="s">
-        <v>287</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D158" t="s">
+        <v>287</v>
+      </c>
+      <c r="E158" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>100156</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>155</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>283</v>
       </c>
-      <c r="D158" t="s">
-        <v>288</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D159" t="s">
+        <v>288</v>
+      </c>
+      <c r="E159" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>100157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>156</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>284</v>
       </c>
-      <c r="D159" t="s">
-        <v>288</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D160" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>100158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>157</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>230</v>
       </c>
-      <c r="D160" t="s">
-        <v>288</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D161" t="s">
+        <v>288</v>
+      </c>
+      <c r="E161" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>100159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>158</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>90</v>
       </c>
-      <c r="D161" t="s">
-        <v>287</v>
-      </c>
-      <c r="E161" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162">
-        <v>100160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" t="s">
-        <v>285</v>
-      </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E162" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>100160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D163" t="s">
+        <v>288</v>
+      </c>
+      <c r="E163" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>100161</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>160</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>286</v>
       </c>
-      <c r="D163" t="s">
-        <v>287</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D164" t="s">
+        <v>287</v>
+      </c>
+      <c r="E164" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>100162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>161</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>210</v>
       </c>
-      <c r="D164" t="s">
-        <v>287</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D165" t="s">
+        <v>287</v>
+      </c>
+      <c r="E165" t="s">
         <v>293</v>
       </c>
     </row>
